--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadin\OneDrive\Dokumente\Studium\Web\Development\Projekt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="10_ncr:100000_{F7C69279-0BF2-45B2-8736-9E043122038A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{5A715488-9106-42C3-9C13-82C342C4CADA}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="16560" windowHeight="6108" xr2:uid="{ACD3F483-3189-47FE-BA61-1080199BA410}"/>
+    <workbookView xWindow="3740" yWindow="0" windowWidth="20400" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>ToDo</t>
   </si>
@@ -238,11 +235,14 @@
   <si>
     <t>Ausgabe Win/Loose</t>
   </si>
+  <si>
+    <t>t p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +315,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -328,13 +328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -780,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -832,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1026,30 +1026,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D927FAF-8BCD-4692-84E9-A8C7DDC2107A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1112,24 +1112,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="G5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1197,20 +1197,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="G12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1223,14 +1223,14 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1266,16 +1266,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1292,29 +1292,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1339,16 +1342,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1362,25 +1365,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
@@ -1389,20 +1395,20 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1584,6 +1590,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974A514-115A-48C1-BBDB-5A80ACAE600B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="0" windowWidth="20400" windowHeight="13580"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="20400" windowHeight="13584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>ToDo</t>
   </si>
@@ -221,9 +227,6 @@
     <t>Verlinkung in Footer</t>
   </si>
   <si>
-    <t>phpMyAdmin; Test-User &amp; Test-Scores anlegen</t>
-  </si>
-  <si>
     <t>Treffpunkt</t>
   </si>
   <si>
@@ -237,12 +240,15 @@
   </si>
   <si>
     <t>t p</t>
+  </si>
+  <si>
+    <t>Fremdschlüssel fehlt noch!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1026,30 +1032,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1076,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1101,23 +1107,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1206,11 +1215,11 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1224,13 +1233,13 @@
         <v>20</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="6">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1255,18 +1264,18 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1284,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1314,10 +1323,10 @@
         <v>42</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1360,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1383,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>56</v>
       </c>
@@ -1408,7 +1417,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974A514-115A-48C1-BBDB-5A80ACAE600B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F9129-58E0-4F9A-A8DF-E6243C5366E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="20400" windowHeight="13584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5616" yWindow="0" windowWidth="20400" windowHeight="13584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>ToDo</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Fremdschlüssel fehlt noch!</t>
+  </si>
+  <si>
+    <t>index.php</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -838,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,6 +1353,9 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -1459,7 +1465,7 @@
       <formula>NOT(ISERROR(SEARCH("unerledigt",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 D26:D27 D29:D31 D11:D24 E3 D33:D1048576 E22 D1:D9">
+  <conditionalFormatting sqref="E26 D26:D27 D29:D31 D11:D24 E3 D33:D1048576 D1:D9 E22:E23">
     <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D1)))</formula>
     </cfRule>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F9129-58E0-4F9A-A8DF-E6243C5366E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EEEA30-4283-4C1E-A791-CD2C89D8CF78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="0" windowWidth="20400" windowHeight="13584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7488" yWindow="0" windowWidth="20400" windowHeight="13584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>ToDo</t>
   </si>
@@ -48,15 +48,9 @@
     <t>unerledigt</t>
   </si>
   <si>
-    <t>Verknüpfung DB Profil anzeigen</t>
-  </si>
-  <si>
     <t>Hinweis Bearbeitung</t>
   </si>
   <si>
-    <t>profil.html -&gt; .php</t>
-  </si>
-  <si>
     <t>Verknüpfung DB Login</t>
   </si>
   <si>
@@ -84,21 +78,12 @@
     <t>Layout fertigstellen</t>
   </si>
   <si>
-    <t>index.html als Spielseite?</t>
-  </si>
-  <si>
     <t>login.html -&gt; .php (Startseite?)</t>
   </si>
   <si>
-    <t>Bilder und Hintergründe anpassen</t>
-  </si>
-  <si>
     <t>Programmieren!!!</t>
   </si>
   <si>
-    <t xml:space="preserve">index.html </t>
-  </si>
-  <si>
     <t>Highscore</t>
   </si>
   <si>
@@ -150,22 +135,10 @@
     <t>Logo gestalten?</t>
   </si>
   <si>
-    <t>Registrierung als Overlay?</t>
-  </si>
-  <si>
-    <t>Schwierigkeitsstufen als Overlay?</t>
-  </si>
-  <si>
-    <t>siehe Overlay Adressverwaltung</t>
-  </si>
-  <si>
     <t>CSS/SCSS</t>
   </si>
   <si>
     <t>Impressum</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>Sitemap!</t>
@@ -212,9 +185,6 @@
     <t>Startseite - Playbutton</t>
   </si>
   <si>
-    <t>siehe Adressverwaltung: anzeigen der Adressen &amp; bearbeiten</t>
-  </si>
-  <si>
     <t xml:space="preserve">css, js, html, </t>
   </si>
   <si>
@@ -233,26 +203,47 @@
     <t>Sonntag 22.04.</t>
   </si>
   <si>
-    <t xml:space="preserve">Klicks </t>
-  </si>
-  <si>
     <t>Ausgabe Win/Loose</t>
   </si>
   <si>
-    <t>t p</t>
-  </si>
-  <si>
     <t>Fremdschlüssel fehlt noch!</t>
   </si>
   <si>
     <t>index.php</t>
+  </si>
+  <si>
+    <t>Profil löschen!!!</t>
+  </si>
+  <si>
+    <t>Zähler Platzierung, username statt userid</t>
+  </si>
+  <si>
+    <t>Header -&gt; Navi</t>
+  </si>
+  <si>
+    <t>indexProject &amp; game.php ineinander integrieren</t>
+  </si>
+  <si>
+    <t>verlinkung header</t>
+  </si>
+  <si>
+    <t>Bilder und Hintergründe, Grid anpassen</t>
+  </si>
+  <si>
+    <t>game.js</t>
+  </si>
+  <si>
+    <t>popUp</t>
+  </si>
+  <si>
+    <t>anzeige Score (SQL Statement abrufen: HighscoreController funk)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +263,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -337,18 +321,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -608,34 +592,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBFA9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCA7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1043,16 +999,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
@@ -1072,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -1084,413 +1040,386 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.45833333333333331</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
+      <c r="D31" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C9 C11:C17 C26:C27 C29:C31 C19:C24 C33:C38 C41:C1048576 I12:I13">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="unerledigt">
+  <conditionalFormatting sqref="C10:C16 C24:C25 C27:C29 C31:C36 C39:C1048576 I11:I12 C1:C8 C18:C22">
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C18)))</formula>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 D26:D27 D29:D31 D11:D24 E3 D33:D1048576 D1:D9 E22:E23">
-    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="Nadine">
+  <conditionalFormatting sqref="E24 D24:D25 D27:D29 E3 D31:D1048576 E19:E21 D1:D8 G5:G7 D10:D22">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G8">
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H3">
@@ -1504,104 +1433,104 @@
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C23">
     <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("erledigt",C23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D23">
     <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nadine",D23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Jassi",D23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mariella",D23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Kilian",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C26">
     <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("erledigt",C26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D26">
     <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nadine",D26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Jassi",D26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mariella",D26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Kilian",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C9">
     <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("erledigt",C9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D9">
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nadine",D9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Jassi",D9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mariella",D9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Kilian",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C30">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("erledigt",C30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D30">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nadine",D30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Jassi",D30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mariella",D30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Kilian",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163F9BD-BCF5-4D30-8090-7380B57AE805}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980"/>
+    <workbookView minimized="1" xWindow="936" yWindow="0" windowWidth="25596" windowHeight="14976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aufgabenverteilung" sheetId="2" r:id="rId1"/>
+    <sheet name="ToDo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t>ToDo</t>
   </si>
@@ -48,9 +55,6 @@
     <t>Verknüpfung DB Login</t>
   </si>
   <si>
-    <t>siehe Login Hoover!</t>
-  </si>
-  <si>
     <t>Erstellen der DB</t>
   </si>
   <si>
@@ -60,9 +64,6 @@
     <t>highscore.html -&gt; .php</t>
   </si>
   <si>
-    <t>Daten via JavaScript aufsteigend sortieren &amp; aus DB holen</t>
-  </si>
-  <si>
     <t>Verknüpfungen</t>
   </si>
   <si>
@@ -88,12 +89,6 @@
   </si>
   <si>
     <t>HTML</t>
-  </si>
-  <si>
-    <t>Grid anpassen!</t>
-  </si>
-  <si>
-    <t>.. Html -&gt;  .php</t>
   </si>
   <si>
     <t>Klassen auswechseln!</t>
@@ -188,9 +183,6 @@
     <t>To-Do</t>
   </si>
   <si>
-    <t>Verlinkung in Footer</t>
-  </si>
-  <si>
     <t>Treffpunkt</t>
   </si>
   <si>
@@ -206,9 +198,6 @@
     <t>index.php</t>
   </si>
   <si>
-    <t>Profil löschen!!!</t>
-  </si>
-  <si>
     <t>Zähler Platzierung, username statt userid</t>
   </si>
   <si>
@@ -231,13 +220,130 @@
   </si>
   <si>
     <t>anzeige Score (SQL Statement abrufen: HighscoreController funk)</t>
+  </si>
+  <si>
+    <t>in Vorlesung</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Grid anpassen</t>
+  </si>
+  <si>
+    <t>Profil löschen</t>
+  </si>
+  <si>
+    <t>Aufgabenverteilung</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>RegisterController</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>User angepasst</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>im Unterricht</t>
+  </si>
+  <si>
+    <t>HighscoreModel</t>
+  </si>
+  <si>
+    <t>UserModel ausgebessert</t>
+  </si>
+  <si>
+    <t>IndexController anpegasst</t>
+  </si>
+  <si>
+    <t>dbconfig</t>
+  </si>
+  <si>
+    <t>DB-Verknüpfung</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>register.js</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>routes.php erweitert</t>
+  </si>
+  <si>
+    <t>config.php angepasst</t>
+  </si>
+  <si>
+    <t>UserModel.php</t>
+  </si>
+  <si>
+    <t>User.php angepasst</t>
+  </si>
+  <si>
+    <t>IndexController.php bearbeitet</t>
+  </si>
+  <si>
+    <t>LoginController.php bearbeitet</t>
+  </si>
+  <si>
+    <t>RegisterController.php erstellt</t>
+  </si>
+  <si>
+    <t>registrierung.php</t>
+  </si>
+  <si>
+    <t>highscore.php</t>
+  </si>
+  <si>
+    <t>databasedump brennatuatsguat.sql erstellt</t>
+  </si>
+  <si>
+    <t>Floating fehlt!</t>
+  </si>
+  <si>
+    <t>Überprüfung PWD!!</t>
+  </si>
+  <si>
+    <t>Verknüpfung zur Registrierung</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>Verlinkung in Footer, Controller nötig!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +375,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -322,11 +450,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -681,6 +818,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9900"/>
       <color rgb="FFEBFA9E"/>
       <color rgb="FFFFCA7D"/>
     </mruColors>
@@ -694,6 +832,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{559D6AD9-E818-4E82-8978-18E26D136534}" name="Tabelle1" displayName="Tabelle1" ref="A3:C15" totalsRowShown="0">
+  <autoFilter ref="A3:C15" xr:uid="{0E32FC58-87E2-4A4B-8287-1D6B4AAE4619}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7E9BA2C1-1419-4577-8B16-20E0DAE8283D}" name="Person"/>
+    <tableColumn id="2" xr3:uid="{730F7149-0705-4D35-BDFE-D3DE14B95096}" name="Aufgabe" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BFE737E3-901A-43E1-9196-D116C29D2645}" name="Details"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,30 +1139,1973 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B8EFFB-C513-4C1B-8508-A6C70D56EA14}">
+  <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="9"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="9"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="9"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="9"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="9"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="9"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="9"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="9"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="9"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="9"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="9"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="9"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="9"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="9"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="9"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="9"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="9"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="9"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="9"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="9"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="9"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="9"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="9"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="9"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="9"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="9"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="9"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="9"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="9"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="9"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="9"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="9"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="9"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="9"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="9"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="9"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="9"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="9"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="9"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="9"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="9"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="9"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="9"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="9"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="9"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="9"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="9"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="9"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="9"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="9"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="9"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="9"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="9"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="9"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="9"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="9"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="9"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="9"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="9"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="9"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="9"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="9"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="9"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="9"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="9"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="9"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="9"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="9"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="9"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="9"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="9"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="9"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="9"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="9"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" s="9"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="9"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="9"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="9"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="9"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="9"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="9"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="9"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="9"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="9"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="9"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" s="9"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="9"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="9"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" s="9"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="9"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="9"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" s="9"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" s="9"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="9"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="9"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" s="9"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" s="9"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" s="9"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" s="9"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="9"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" s="9"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" s="9"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="9"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" s="9"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" s="9"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" s="9"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" s="9"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" s="9"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" s="9"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" s="9"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" s="9"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" s="9"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" s="9"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" s="9"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" s="9"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" s="9"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" s="9"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" s="9"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" s="9"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" s="9"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" s="9"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" s="9"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" s="9"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" s="9"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" s="9"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="9"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" s="9"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" s="9"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" s="9"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" s="9"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" s="9"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" s="9"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" s="9"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" s="9"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" s="9"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" s="9"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" s="9"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" s="9"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" s="9"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" s="9"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="9"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" s="9"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="9"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="9"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="9"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="9"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" s="9"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" s="9"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" s="9"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" s="9"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" s="9"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" s="9"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" s="9"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" s="9"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" s="9"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" s="9"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" s="9"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" s="9"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" s="9"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" s="9"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" s="9"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" s="9"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" s="9"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" s="9"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" s="9"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" s="9"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" s="9"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" s="9"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" s="9"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" s="9"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" s="9"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" s="9"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" s="9"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" s="9"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" s="9"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" s="9"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" s="9"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" s="9"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" s="9"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="9"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" s="9"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" s="9"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" s="9"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" s="9"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" s="9"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" s="9"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="9"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" s="9"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" s="9"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="9"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="9"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="9"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" s="9"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" s="9"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" s="9"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" s="9"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" s="9"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" s="9"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" s="9"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" s="9"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" s="9"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" s="9"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" s="9"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" s="9"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" s="9"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" s="9"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" s="9"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" s="9"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" s="9"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" s="9"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" s="9"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" s="9"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" s="9"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" s="9"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" s="9"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" s="9"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" s="9"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" s="9"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" s="9"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" s="9"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" s="9"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" s="9"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" s="9"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" s="9"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" s="9"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" s="9"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" s="9"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" s="9"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" s="9"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" s="9"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" s="9"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" s="9"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" s="9"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" s="9"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" s="9"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" s="9"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" s="9"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="9"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" s="9"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" s="9"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" s="9"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" s="9"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" s="9"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" s="9"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" s="9"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" s="9"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" s="9"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" s="9"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" s="9"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" s="9"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" s="9"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" s="9"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" s="9"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" s="9"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" s="9"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" s="9"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" s="9"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" s="9"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" s="9"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" s="9"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" s="9"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" s="9"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" s="9"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" s="9"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" s="9"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" s="9"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" s="9"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" s="9"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" s="9"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" s="9"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" s="9"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" s="9"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" s="9"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" s="9"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" s="9"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" s="9"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" s="9"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" s="9"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" s="9"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481" s="9"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482" s="9"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483" s="9"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484" s="9"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485" s="9"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486" s="9"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487" s="9"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B488" s="9"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B489" s="9"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B490" s="9"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B491" s="9"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B492" s="9"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B493" s="9"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B494" s="9"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B495" s="9"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B496" s="9"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B497" s="9"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B498" s="9"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B499" s="9"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B500" s="9"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B501" s="9"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B502" s="9"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B503" s="9"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B504" s="9"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B505" s="9"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B506" s="9"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B507" s="9"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B508" s="9"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B509" s="9"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B510" s="9"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B511" s="9"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B512" s="9"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B513" s="9"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B514" s="9"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B515" s="9"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B516" s="9"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B517" s="9"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B518" s="9"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B519" s="9"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B520" s="9"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B521" s="9"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B522" s="9"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B523" s="9"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B524" s="9"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B525" s="9"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B526" s="9"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B527" s="9"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B528" s="9"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B529" s="9"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B530" s="9"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B531" s="9"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B532" s="9"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B533" s="9"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B534" s="9"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B535" s="9"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B536" s="9"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B537" s="9"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B538" s="9"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B539" s="9"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B540" s="9"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B541" s="9"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B542" s="9"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B543" s="9"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B544" s="9"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B545" s="9"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B546" s="9"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B547" s="9"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B548" s="9"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B549" s="9"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B550" s="9"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B551" s="9"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B552" s="9"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B553" s="9"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B554" s="9"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B555" s="9"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B556" s="9"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B557" s="9"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B558" s="9"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B559" s="9"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B560" s="9"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B561" s="9"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B562" s="9"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B563" s="9"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B564" s="9"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B565" s="9"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B566" s="9"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B567" s="9"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B568" s="9"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B569" s="9"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B570" s="9"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B571" s="9"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B572" s="9"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B573" s="9"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B574" s="9"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B575" s="9"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B576" s="9"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B577" s="9"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B578" s="9"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B579" s="9"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B580" s="9"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B581" s="9"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B582" s="9"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B583" s="9"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B584" s="9"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B585" s="9"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B586" s="9"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B587" s="9"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B588" s="9"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B589" s="9"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B590" s="9"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B591" s="9"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B592" s="9"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B593" s="9"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B594" s="9"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B595" s="9"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B596" s="9"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B597" s="9"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B598" s="9"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B599" s="9"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B600" s="9"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B601" s="9"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B602" s="9"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B603" s="9"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B604" s="9"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B605" s="9"/>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B606" s="9"/>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B607" s="9"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B608" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1025,509 +3122,551 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H12" s="5">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:C16 C24:C25 C27:C29 C31:C36 C39:C1048576 I11:I12 C1:C8 C18:C22">
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="unerledigt">
+  <conditionalFormatting sqref="C10:C16 C26:C27 C29:C31 C33:C38 C41:C1048576 I11:I12 C1:C8 C18:C24">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 D24:D25 D27:D29 E3 D31:D1048576 E19:E21 D1:D8 G5:G7 D10:D22">
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Nadine">
+  <conditionalFormatting sqref="E26 D26:D27 D29:D31 E3 D33:D1048576 D1:D8 G5:G7 E19:E23 D10:D24">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H3">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C23)))</formula>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D23)))</formula>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="Nadine">
+      <formula>NOT(ISERROR(SEARCH("Nadine",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Jassi">
+      <formula>NOT(ISERROR(SEARCH("Jassi",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Mariella">
+      <formula>NOT(ISERROR(SEARCH("Mariella",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Kilian">
+      <formula>NOT(ISERROR(SEARCH("Kilian",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C26)))</formula>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D26)))</formula>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Nadine">
+      <formula>NOT(ISERROR(SEARCH("Nadine",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Jassi">
+      <formula>NOT(ISERROR(SEARCH("Jassi",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Mariella">
+      <formula>NOT(ISERROR(SEARCH("Mariella",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Kilian">
+      <formula>NOT(ISERROR(SEARCH("Kilian",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="erledigt">
-      <formula>NOT(ISERROR(SEARCH("erledigt",C30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="unerledigt">
-      <formula>NOT(ISERROR(SEARCH("unerledigt",C30)))</formula>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Nadine">
-      <formula>NOT(ISERROR(SEARCH("Nadine",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Jassi">
-      <formula>NOT(ISERROR(SEARCH("Jassi",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Mariella">
-      <formula>NOT(ISERROR(SEARCH("Mariella",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Kilian">
-      <formula>NOT(ISERROR(SEARCH("Kilian",D30)))</formula>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Nadine">
+      <formula>NOT(ISERROR(SEARCH("Nadine",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Jassi">
+      <formula>NOT(ISERROR(SEARCH("Jassi",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Mariella">
+      <formula>NOT(ISERROR(SEARCH("Mariella",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Kilian">
+      <formula>NOT(ISERROR(SEARCH("Kilian",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="25590" windowHeight="14970"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="25590" windowHeight="14970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenverteilung" sheetId="2" r:id="rId1"/>
@@ -524,21 +524,201 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -923,7 +1103,7 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Person"/>
-    <tableColumn id="2" name="Aufgabe" dataDxfId="41"/>
+    <tableColumn id="2" name="Aufgabe" dataDxfId="59"/>
     <tableColumn id="3" name="Details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1229,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1241,31 +1421,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
@@ -1279,9 +1459,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
@@ -1289,11 +1469,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G7" t="s">
@@ -1304,9 +1484,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G8" t="s">
@@ -1317,18 +1497,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G10" t="s">
@@ -1339,153 +1519,153 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3242,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3481,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -3330,13 +3510,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -3393,13 +3573,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
@@ -3480,13 +3660,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3556,13 +3736,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3582,13 +3762,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3616,13 +3796,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3632,7 +3812,7 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -3660,7 +3840,7 @@
         <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3672,151 +3852,184 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A25:E25"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:C16 C26:C27 C29:C31 C33:C38 C41:C1048576 I11:I12 C1:C8 C18:C24">
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="unerledigt">
+  <conditionalFormatting sqref="C10:C16 C26:C27 C29:C31 C34 C41:C1048576 I11:I12 C1:C2 C18:C24 C4:C8 C36:C38">
+    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 D26:D27 D29:D31 E3 D33:D1048576 D1:D8 G5:G7 E19:E23 D10:D24">
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="39" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H3">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="erledigt">
+      <formula>NOT(ISERROR(SEARCH("erledigt",C35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="unerledigt">
+      <formula>NOT(ISERROR(SEARCH("unerledigt",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="25590" windowHeight="14970" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="25590" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenverteilung" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
   <si>
     <t>ToDo</t>
   </si>
@@ -365,13 +365,7 @@
     <t>Routes komplett überarbeitet</t>
   </si>
   <si>
-    <t>neue DB erstellt</t>
-  </si>
-  <si>
-    <t>neue DB verknüpft</t>
-  </si>
-  <si>
-    <t>neue DB eingerichtet</t>
+    <t>neue DB erstellt/verknüpft/eingerichtet</t>
   </si>
 </sst>
 </file>
@@ -538,97 +532,7 @@
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1103,7 +1007,7 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Person"/>
-    <tableColumn id="2" name="Aufgabe" dataDxfId="59"/>
+    <tableColumn id="2" name="Aufgabe" dataDxfId="50"/>
     <tableColumn id="3" name="Details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1409,13 +1313,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1658,16 +1562,12 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -3422,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -3853,182 +3753,182 @@
     <mergeCell ref="A25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C16 C26:C27 C29:C31 C34 C41:C1048576 I11:I12 C1:C2 C18:C24 C4:C8 C36:C38">
-    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 D26:D27 D29:D31 E3 D33:D1048576 D1:D8 G5:G7 E19:E23 D10:D24">
-    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H3">
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C35)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="25590" windowHeight="14970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenverteilung" sheetId="2" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
   <si>
     <t>ToDo</t>
   </si>
@@ -367,12 +362,42 @@
   <si>
     <t>neue DB erstellt/verknüpft/eingerichtet</t>
   </si>
+  <si>
+    <t>GameController.php erstellt</t>
+  </si>
+  <si>
+    <t>routes.php um "game" erweitert</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>style.css erstellt</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Logo erstellt</t>
+  </si>
+  <si>
+    <t>Icons erstellt</t>
+  </si>
+  <si>
+    <t>Ordner "Design" in "docs" erstellt</t>
+  </si>
+  <si>
+    <t>Design erstellt</t>
+  </si>
+  <si>
+    <t>#dankefürnix</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +459,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -509,7 +548,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -526,13 +565,111 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBFA9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCA7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBFA9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCA7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBFA9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCA7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -972,11 +1109,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -999,15 +1131,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:C29" totalsRowShown="0">
-  <autoFilter ref="A3:C29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:C40" totalsRowShown="0">
+  <autoFilter ref="A3:C40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Person"/>
-    <tableColumn id="2" name="Aufgabe" dataDxfId="50"/>
+    <tableColumn id="2" name="Aufgabe" dataDxfId="12"/>
     <tableColumn id="3" name="Details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1303,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1313,25 +1445,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23">
       <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
@@ -1342,7 +1474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -1372,7 +1504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>66</v>
@@ -1387,7 +1519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -1400,14 +1532,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>68</v>
@@ -1422,7 +1554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
@@ -1431,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>77</v>
@@ -1440,14 +1572,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -1456,14 +1588,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>79</v>
@@ -1472,7 +1604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
         <v>95</v>
       </c>
@@ -1480,1830 +1612,1887 @@
         <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
-        <v>77</v>
+      <c r="B26" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
+      <c r="A30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2">
       <c r="B608" s="7"/>
     </row>
   </sheetData>
@@ -3311,10 +3500,15 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3323,19 +3517,19 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3356,7 +3550,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3373,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3390,7 +3584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3404,12 +3598,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3441,7 +3635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -3485,7 +3679,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3508,7 +3702,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3525,7 +3719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3542,7 +3736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3559,7 +3753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -3568,7 +3762,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3582,7 +3776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3596,12 +3790,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -3610,7 +3804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3618,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3635,7 +3829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
@@ -3644,7 +3838,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3661,7 +3855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
@@ -3670,7 +3864,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3681,7 +3875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -3695,7 +3889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -3704,7 +3898,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3718,7 +3912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -3732,7 +3926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -3753,182 +3947,182 @@
     <mergeCell ref="A25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C16 C26:C27 C29:C31 C34 C41:C1048576 I11:I12 C1:C2 C18:C24 C4:C8 C36:C38">
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="61" priority="53" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="58" priority="50" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 D26:D27 D29:D31 E3 D33:D1048576 D1:D8 G5:G7 E19:E23 D10:D24">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="55" priority="46" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="53" priority="48" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H3">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="52" priority="38" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="49" priority="35" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="48" priority="36" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="40" priority="30" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Nadine">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="Nadine">
       <formula>NOT(ISERROR(SEARCH("Nadine",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Jassi">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="Jassi">
       <formula>NOT(ISERROR(SEARCH("Jassi",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Mariella">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Mariella">
       <formula>NOT(ISERROR(SEARCH("Mariella",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Kilian">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Kilian">
       <formula>NOT(ISERROR(SEARCH("Kilian",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="erledigt">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="erledigt">
       <formula>NOT(ISERROR(SEARCH("erledigt",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="unerledigt">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="unerledigt">
       <formula>NOT(ISERROR(SEARCH("unerledigt",C35)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5205B7-7714-42E6-A681-F2A6C5BDCE73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="25590" windowHeight="14970"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="25596" windowHeight="14976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenverteilung" sheetId="2" r:id="rId1"/>
     <sheet name="ToDo" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>ToDo</t>
   </si>
@@ -367,11 +369,38 @@
   <si>
     <t>neue DB erstellt/verknüpft/eingerichtet</t>
   </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Zusammenführen</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Game!</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Highscore!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. </t>
+  </si>
+  <si>
+    <t>Responsive?</t>
+  </si>
+  <si>
+    <t>Ausgabe: größeres Gerät benötigt!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,16 +1028,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:C29" totalsRowShown="0">
-  <autoFilter ref="A3:C29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A3:C29" totalsRowShown="0">
+  <autoFilter ref="A3:C29" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Person"/>
-    <tableColumn id="2" name="Aufgabe" dataDxfId="50"/>
-    <tableColumn id="3" name="Details"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Person"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Aufgabe" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1310,28 +1339,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
@@ -1342,7 +1371,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -1372,7 +1401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>66</v>
@@ -1387,7 +1416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -1400,14 +1429,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>68</v>
@@ -1422,7 +1451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
@@ -1431,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>77</v>
@@ -1440,14 +1469,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -1456,14 +1485,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>79</v>
@@ -1472,7 +1501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>95</v>
       </c>
@@ -1483,28 +1512,28 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>66</v>
@@ -1513,35 +1542,35 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>77</v>
@@ -1550,7 +1579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
         <v>79</v>
@@ -1559,1751 +1588,1751 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601" s="7"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602" s="7"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603" s="7"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604" s="7"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605" s="7"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606" s="7"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607" s="7"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608" s="7"/>
     </row>
   </sheetData>
@@ -3319,23 +3348,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3356,7 +3385,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3373,7 +3402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3383,14 +3412,11 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3404,12 +3430,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3441,7 +3467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3484,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -3485,7 +3511,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3508,7 +3534,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3525,7 +3551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3542,7 +3568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3559,7 +3585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -3568,7 +3594,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3582,7 +3608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3596,7 +3622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3610,7 +3636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3618,7 +3644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3635,7 +3661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
@@ -3644,7 +3670,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3661,7 +3687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
@@ -3670,7 +3696,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3681,7 +3707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -3695,7 +3721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -3704,7 +3730,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3718,7 +3744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -3732,7 +3758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -3940,4 +3966,59 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148BDA43-2662-412A-97B7-1DC40E531EC7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/toDo_Liste.xlsx
+++ b/docs/toDo_Liste.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BrennaTuatsGuat\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F6B37-720F-4D65-8E3B-DFD4E555BDD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="25596" windowHeight="14976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenverteilung" sheetId="2" r:id="rId1"/>
@@ -19,18 +13,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>ToDo</t>
   </si>
@@ -378,12 +372,51 @@
   <si>
     <t>UserModel.php aus AddressModel umgeschrieben</t>
   </si>
+  <si>
+    <t>impressum.php</t>
+  </si>
+  <si>
+    <t>footer.php</t>
+  </si>
+  <si>
+    <t>header.php</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>style.css ab Zeile 310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style.css </t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Ordner "Design" mit gesamten Layouts</t>
+  </si>
+  <si>
+    <t>Logogestaltung</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>GameController.php erstellt</t>
+  </si>
+  <si>
+    <t>um "game" erweitert</t>
+  </si>
+  <si>
+    <t>game.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +486,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -528,7 +575,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -539,13 +586,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
@@ -1019,16 +1069,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A3:C22" totalsRowShown="0">
-  <autoFilter ref="A3:C22" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:C33" totalsRowShown="0">
+  <autoFilter ref="A3:C33">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Person"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Aufgabe" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Details"/>
+    <tableColumn id="1" name="Person"/>
+    <tableColumn id="2" name="Aufgabe" dataDxfId="50"/>
+    <tableColumn id="3" name="Details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1077,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1129,7 +1179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1323,35 +1373,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="23">
+      <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -1392,7 +1442,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>66</v>
@@ -1407,7 +1457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -1420,14 +1470,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>67</v>
@@ -1442,7 +1492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>69</v>
@@ -1451,14 +1501,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>76</v>
@@ -1467,14 +1517,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1483,14 +1533,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
         <v>78</v>
@@ -1499,7 +1549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
         <v>92</v>
       </c>
@@ -1510,1769 +1560,1831 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:2">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:2">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:2">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:2">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2">
       <c r="B280" s="7"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2">
       <c r="B281" s="7"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2">
       <c r="B282" s="7"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2">
       <c r="B283" s="7"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2">
       <c r="B284" s="7"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2">
       <c r="B285" s="7"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2">
       <c r="B286" s="7"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2">
       <c r="B287" s="7"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2">
       <c r="B288" s="7"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2">
       <c r="B289" s="7"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:2">
       <c r="B290" s="7"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:2">
       <c r="B291" s="7"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:2">
       <c r="B292" s="7"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:2">
       <c r="B293" s="7"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:2">
       <c r="B294" s="7"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:2">
       <c r="B295" s="7"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:2">
       <c r="B296" s="7"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:2">
       <c r="B297" s="7"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:2">
       <c r="B298" s="7"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:2">
       <c r="B299" s="7"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:2">
       <c r="B300" s="7"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:2">
       <c r="B301" s="7"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:2">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:2">
       <c r="B303" s="7"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:2">
       <c r="B304" s="7"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2">
       <c r="B305" s="7"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:2">
       <c r="B306" s="7"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2">
       <c r="B307" s="7"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:2">
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2">
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:2">
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2">
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:2">
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2">
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:2">
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:2">
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:2">
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:2">
       <c r="B319" s="7"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:2">
       <c r="B320" s="7"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:2">
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:2">
       <c r="B322" s="7"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:2">
       <c r="B323" s="7"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:2">
       <c r="B324" s="7"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2">
       <c r="B325" s="7"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:2">
       <c r="B326" s="7"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:2">
       <c r="B327" s="7"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:2">
       <c r="B328" s="7"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2">
       <c r="B329" s="7"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:2">
       <c r="B330" s="7"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:2">
       <c r="B331" s="7"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:2">
       <c r="B332" s="7"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2">
       <c r="B333" s="7"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:2">
       <c r="B334" s="7"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:2">
       <c r="B335" s="7"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:2">
       <c r="B336" s="7"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2">
       <c r="B337" s="7"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:2">
       <c r="B338" s="7"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:2">
       <c r="B339" s="7"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:2">
       <c r="B340" s="7"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:2">
       <c r="B341" s="7"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:2">
       <c r="B342" s="7"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2">
       <c r="B343" s="7"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:2">
       <c r="B344" s="7"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:2">
       <c r="B345" s="7"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:2">
       <c r="B346" s="7"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:2">
       <c r="B347" s="7"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:2">
       <c r="B348" s="7"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:2">
       <c r="B349" s="7"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:2">
       <c r="B350" s="7"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:2">
       <c r="B351" s="7"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:2">
       <c r="B352" s="7"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:2">
       <c r="B353" s="7"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:2">
       <c r="B354" s="7"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:2">
       <c r="B355" s="7"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:2">
       <c r="B356" s="7"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:2">
       <c r="B357" s="7"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:2">
       <c r="B358" s="7"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:2">
       <c r="B359" s="7"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:2">
       <c r="B360" s="7"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:2">
       <c r="B361" s="7"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:2">
       <c r="B362" s="7"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:2">
       <c r="B363" s="7"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:2">
       <c r="B364" s="7"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:2">
       <c r="B365" s="7"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:2">
       <c r="B366" s="7"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:2">
       <c r="B367" s="7"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:2">
       <c r="B368" s="7"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:2">
       <c r="B369" s="7"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:2">
       <c r="B370" s="7"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:2">
       <c r="B371" s="7"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:2">
       <c r="B372" s="7"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:2">
       <c r="B373" s="7"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:2">
       <c r="B374" s="7"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:2">
       <c r="B375" s="7"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:2">
       <c r="B376" s="7"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:2">
       <c r="B377" s="7"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:2">
       <c r="B378" s="7"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:2">
       <c r="B379" s="7"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:2">
       <c r="B380" s="7"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:2">
       <c r="B381" s="7"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:2">
       <c r="B382" s="7"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:2">
       <c r="B383" s="7"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:2">
       <c r="B384" s="7"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:2">
       <c r="B385" s="7"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:2">
       <c r="B386" s="7"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:2">
       <c r="B387" s="7"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:2">
       <c r="B388" s="7"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:2">
       <c r="B389" s="7"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:2">
       <c r="B390" s="7"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:2">
       <c r="B391" s="7"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:2">
       <c r="B392" s="7"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:2">
       <c r="B393" s="7"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:2">
       <c r="B394" s="7"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:2">
       <c r="B395" s="7"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:2">
       <c r="B396" s="7"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:2">
       <c r="B397" s="7"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:2">
       <c r="B398" s="7"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:2">
       <c r="B399" s="7"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:2">
       <c r="B400" s="7"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:2">
       <c r="B401" s="7"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:2">
       <c r="B402" s="7"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:2">
       <c r="B403" s="7"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:2">
       <c r="B404" s="7"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:2">
       <c r="B405" s="7"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:2">
       <c r="B406" s="7"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:2">
       <c r="B407" s="7"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:2">
       <c r="B408" s="7"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:2">
       <c r="B409" s="7"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:2">
       <c r="B410" s="7"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:2">
       <c r="B411" s="7"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:2">
       <c r="B412" s="7"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:2">
       <c r="B413" s="7"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:2">
       <c r="B414" s="7"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:2">
       <c r="B415" s="7"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:2">
       <c r="B416" s="7"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:2">
       <c r="B417" s="7"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:2">
       <c r="B418" s="7"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:2">
       <c r="B419" s="7"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:2">
       <c r="B420" s="7"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:2">
       <c r="B421" s="7"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:2">
       <c r="B422" s="7"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:2">
       <c r="B423" s="7"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:2">
       <c r="B424" s="7"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:2">
       <c r="B425" s="7"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:2">
       <c r="B426" s="7"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:2">
       <c r="B427" s="7"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:2">
       <c r="B428" s="7"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:2">
       <c r="B429" s="7"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:2">
       <c r="B430" s="7"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:2">
       <c r="B431" s="7"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:2">
       <c r="B432" s="7"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:2">
       <c r="B433" s="7"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:2">
       <c r="B434" s="7"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:2">
       <c r="B435" s="7"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:2">
       <c r="B436" s="7"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:2">
       <c r="B437" s="7"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:2">
       <c r="B438" s="7"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:2">
       <c r="B439" s="7"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:2">
       <c r="B440" s="7"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:2">
       <c r="B441" s="7"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:2">
       <c r="B442" s="7"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:2">
       <c r="B443" s="7"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:2">
       <c r="B444" s="7"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:2">
       <c r="B445" s="7"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:2">
       <c r="B446" s="7"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:2">
       <c r="B447" s="7"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:2">
       <c r="B448" s="7"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:2">
       <c r="B449" s="7"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:2">
       <c r="B450" s="7"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:2">
       <c r="B451" s="7"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:2">
       <c r="B452" s="7"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:2">
       <c r="B453" s="7"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:2">
       <c r="B454" s="7"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:2">
       <c r="B455" s="7"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:2">
       <c r="B456" s="7"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:2">
       <c r="B457" s="7"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:2">
       <c r="B458" s="7"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:2">
       <c r="B459" s="7"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:2">
       <c r="B460" s="7"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:2">
       <c r="B461" s="7"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:2">
       <c r="B462" s="7"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:2">
       <c r="B463" s="7"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:2">
       <c r="B464" s="7"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:2">
       <c r="B465" s="7"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:2">
       <c r="B466" s="7"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:2">
       <c r="B467" s="7"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:2">
       <c r="B468" s="7"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:2">
       <c r="B469" s="7"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:2">
       <c r="B470" s="7"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:2">
       <c r="B471" s="7"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:2">
       <c r="B472" s="7"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:2">
       <c r="B473" s="7"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:2">
       <c r="B474" s="7"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:2">
       <c r="B475" s="7"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:2">
       <c r="B476" s="7"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:2">
       <c r="B477" s="7"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:2">
       <c r="B478" s="7"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:2">
       <c r="B479" s="7"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:2">
       <c r="B480" s="7"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:2">
       <c r="B481" s="7"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:2">
       <c r="B482" s="7"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:2">
       <c r="B483" s="7"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:2">
       <c r="B484" s="7"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:2">
       <c r="B485" s="7"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:2">
       <c r="B486" s="7"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:2">
       <c r="B487" s="7"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:2">
       <c r="B488" s="7"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:2">
       <c r="B489" s="7"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:2">
       <c r="B490" s="7"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:2">
       <c r="B491" s="7"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:2">
       <c r="B492" s="7"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:2">
       <c r="B493" s="7"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:2">
       <c r="B494" s="7"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:2">
       <c r="B495" s="7"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:2">
       <c r="B496" s="7"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:2">
       <c r="B497" s="7"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:2">
       <c r="B498" s="7"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:2">
       <c r="B499" s="7"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:2">
       <c r="B500" s="7"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:2">
       <c r="B501" s="7"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:2">
       <c r="B502" s="7"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:2">
       <c r="B503" s="7"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:2">
       <c r="B504" s="7"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:2">
       <c r="B505" s="7"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:2">
       <c r="B506" s="7"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:2">
       <c r="B507" s="7"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:2">
       <c r="B508" s="7"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:2">
       <c r="B509" s="7"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:2">
       <c r="B510" s="7"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:2">
       <c r="B511" s="7"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:2">
       <c r="B512" s="7"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:2">
       <c r="B513" s="7"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:2">
       <c r="B514" s="7"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:2">
       <c r="B515" s="7"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:2">
       <c r="B516" s="7"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:2">
       <c r="B517" s="7"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:2">
       <c r="B518" s="7"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:2">
       <c r="B519" s="7"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:2">
       <c r="B520" s="7"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:2">
       <c r="B521" s="7"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:2">
       <c r="B522" s="7"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:2">
       <c r="B523" s="7"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:2">
       <c r="B524" s="7"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:2">
       <c r="B525" s="7"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:2">
       <c r="B526" s="7"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:2">
       <c r="B527" s="7"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:2">
       <c r="B528" s="7"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:2">
       <c r="B529" s="7"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:2">
       <c r="B530" s="7"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:2">
       <c r="B531" s="7"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:2">
       <c r="B532" s="7"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:2">
       <c r="B533" s="7"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:2">
       <c r="B534" s="7"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:2">
       <c r="B535" s="7"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:2">
       <c r="B536" s="7"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:2">
       <c r="B537" s="7"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:2">
       <c r="B538" s="7"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:2">
       <c r="B539" s="7"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:2">
       <c r="B540" s="7"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:2">
       <c r="B541" s="7"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:2">
       <c r="B542" s="7"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:2">
       <c r="B543" s="7"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:2">
       <c r="B552" s="7"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:2">
       <c r="B554" s="7"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:2">
       <c r="B555" s="7"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:2">
       <c r="B556" s="7"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:2">
       <c r="B557" s="7"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:2">
       <c r="B558" s="7"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:2">
       <c r="B559" s="7"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:2">
       <c r="B561" s="7"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:2">
       <c r="B562" s="7"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:2">
       <c r="B563" s="7"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:2">
       <c r="B564" s="7"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:2">
       <c r="B565" s="7"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:2">
       <c r="B566" s="7"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:2">
       <c r="B567" s="7"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:2">
       <c r="B568" s="7"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:2">
       <c r="B569" s="7"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:2">
       <c r="B570" s="7"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:2">
       <c r="B571" s="7"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:2">
       <c r="B572" s="7"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:2">
       <c r="B573" s="7"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:2">
       <c r="B574" s="7"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:2">
       <c r="B575" s="7"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:2">
       <c r="B576" s="7"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:2">
       <c r="B577" s="7"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:2">
       <c r="B578" s="7"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:2">
       <c r="B579" s="7"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:2">
       <c r="B580" s="7"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:2">
       <c r="B581" s="7"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:2">
       <c r="B582" s="7"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:2">
       <c r="B583" s="7"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:2">
       <c r="B584" s="7"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:2">
       <c r="B585" s="7"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:2">
       <c r="B586" s="7"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:2">
       <c r="B587" s="7"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:2">
       <c r="B588" s="7"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:2">
       <c r="B589" s="7"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:2">
       <c r="B590" s="7"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:2">
       <c r="B591" s="7"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:2">
       <c r="B592" s="7"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:2">
       <c r="B593" s="7"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:2">
       <c r="B594" s="7"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:2">
       <c r="B595" s="7"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:2">
       <c r="B596" s="7"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:2">
       <c r="B597" s="7"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:2">
       <c r="B598" s="7"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:2">
       <c r="B599" s="7"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:2">
       <c r="B600" s="7"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:2">
       <c r="B601" s="7"/>
     </row>
   </sheetData>
@@ -3280,31 +3392,36 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3325,7 +3442,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3342,7 +3459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3370,24 +3487,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +3524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3424,7 +3541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3438,20 +3555,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3474,7 +3591,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3491,7 +3608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3508,7 +3625,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3525,21 +3642,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -3548,7 +3665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3556,18 +3673,18 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -3576,7 +3693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3584,7 +3701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3601,16 +3718,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3627,16 +3744,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3647,7 +3764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -3661,16 +3778,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +3801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3895,21 +4012,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148BDA43-2662-412A-97B7-1DC40E531EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -3917,7 +4034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -3925,7 +4042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -3933,7 +4050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -3946,5 +4063,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>